--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitproj\AdoNetCore.AseClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projects\AdoNetCore.AseClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NET46_COREFX" sheetId="3" r:id="rId4"/>
     <sheet name="NET46_SAP" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -181,294 +181,6 @@
     <t>Mean (COREFX NETCORE2_0)</t>
   </si>
   <si>
-    <t>434.7 us</t>
-  </si>
-  <si>
-    <t>6.539 us</t>
-  </si>
-  <si>
-    <t>6.116 us</t>
-  </si>
-  <si>
-    <t>436.8 us</t>
-  </si>
-  <si>
-    <t>7.032 us</t>
-  </si>
-  <si>
-    <t>6.234 us</t>
-  </si>
-  <si>
-    <t>487.4 us</t>
-  </si>
-  <si>
-    <t>9.210 us</t>
-  </si>
-  <si>
-    <t>8.164 us</t>
-  </si>
-  <si>
-    <t>489.8 us</t>
-  </si>
-  <si>
-    <t>6.682 us</t>
-  </si>
-  <si>
-    <t>6.250 us</t>
-  </si>
-  <si>
-    <t>4,058.3 us</t>
-  </si>
-  <si>
-    <t>51.870 us</t>
-  </si>
-  <si>
-    <t>43.314 us</t>
-  </si>
-  <si>
-    <t>4,064.9 us</t>
-  </si>
-  <si>
-    <t>37.026 us</t>
-  </si>
-  <si>
-    <t>34.634 us</t>
-  </si>
-  <si>
-    <t>26,005.6 us</t>
-  </si>
-  <si>
-    <t>230.913 us</t>
-  </si>
-  <si>
-    <t>215.996 us</t>
-  </si>
-  <si>
-    <t>25,902.8 us</t>
-  </si>
-  <si>
-    <t>324.143 us</t>
-  </si>
-  <si>
-    <t>303.203 us</t>
-  </si>
-  <si>
-    <t>480.6 us</t>
-  </si>
-  <si>
-    <t>7.900 us</t>
-  </si>
-  <si>
-    <t>7.003 us</t>
-  </si>
-  <si>
-    <t>511.3 us</t>
-  </si>
-  <si>
-    <t>10.091 us</t>
-  </si>
-  <si>
-    <t>11.216 us</t>
-  </si>
-  <si>
-    <t>534.1 us</t>
-  </si>
-  <si>
-    <t>10.661 us</t>
-  </si>
-  <si>
-    <t>10.948 us</t>
-  </si>
-  <si>
-    <t>563.0 us</t>
-  </si>
-  <si>
-    <t>8.919 us</t>
-  </si>
-  <si>
-    <t>7.907 us</t>
-  </si>
-  <si>
-    <t>4,388.6 us</t>
-  </si>
-  <si>
-    <t>46.117 us</t>
-  </si>
-  <si>
-    <t>43.138 us</t>
-  </si>
-  <si>
-    <t>4,622.5 us</t>
-  </si>
-  <si>
-    <t>88.731 us</t>
-  </si>
-  <si>
-    <t>115.375 us</t>
-  </si>
-  <si>
-    <t>30,651.2 us</t>
-  </si>
-  <si>
-    <t>580.136 us</t>
-  </si>
-  <si>
-    <t>620.739 us</t>
-  </si>
-  <si>
-    <t>32,121.5 us</t>
-  </si>
-  <si>
-    <t>628.801 us</t>
-  </si>
-  <si>
-    <t>1,226.428 us</t>
-  </si>
-  <si>
-    <t>461.3 us</t>
-  </si>
-  <si>
-    <t>9.125 us</t>
-  </si>
-  <si>
-    <t>15.982 us</t>
-  </si>
-  <si>
-    <t>474.4 us</t>
-  </si>
-  <si>
-    <t>8.776 us</t>
-  </si>
-  <si>
-    <t>7.780 us</t>
-  </si>
-  <si>
-    <t>519.8 us</t>
-  </si>
-  <si>
-    <t>8.389 us</t>
-  </si>
-  <si>
-    <t>7.005 us</t>
-  </si>
-  <si>
-    <t>521.6 us</t>
-  </si>
-  <si>
-    <t>10.383 us</t>
-  </si>
-  <si>
-    <t>15.219 us</t>
-  </si>
-  <si>
-    <t>4,185.8 us</t>
-  </si>
-  <si>
-    <t>69.025 us</t>
-  </si>
-  <si>
-    <t>64.566 us</t>
-  </si>
-  <si>
-    <t>4,295.3 us</t>
-  </si>
-  <si>
-    <t>40.053 us</t>
-  </si>
-  <si>
-    <t>37.466 us</t>
-  </si>
-  <si>
-    <t>27,048.8 us</t>
-  </si>
-  <si>
-    <t>499.657 us</t>
-  </si>
-  <si>
-    <t>442.933 us</t>
-  </si>
-  <si>
-    <t>26,849.7 us</t>
-  </si>
-  <si>
-    <t>415.134 us</t>
-  </si>
-  <si>
-    <t>388.317 us</t>
-  </si>
-  <si>
-    <t>455.9 us</t>
-  </si>
-  <si>
-    <t>10.106 us</t>
-  </si>
-  <si>
-    <t>16.61 us</t>
-  </si>
-  <si>
-    <t>480.3 us</t>
-  </si>
-  <si>
-    <t>9.400 us</t>
-  </si>
-  <si>
-    <t>13.78 us</t>
-  </si>
-  <si>
-    <t>522.0 us</t>
-  </si>
-  <si>
-    <t>10.206 us</t>
-  </si>
-  <si>
-    <t>17.05 us</t>
-  </si>
-  <si>
-    <t>542.6 us</t>
-  </si>
-  <si>
-    <t>10.735 us</t>
-  </si>
-  <si>
-    <t>16.07 us</t>
-  </si>
-  <si>
-    <t>4,248.4 us</t>
-  </si>
-  <si>
-    <t>91.339 us</t>
-  </si>
-  <si>
-    <t>85.44 us</t>
-  </si>
-  <si>
-    <t>4,224.3 us</t>
-  </si>
-  <si>
-    <t>73.617 us</t>
-  </si>
-  <si>
-    <t>65.26 us</t>
-  </si>
-  <si>
-    <t>27,200.6 us</t>
-  </si>
-  <si>
-    <t>540.919 us</t>
-  </si>
-  <si>
-    <t>601.23 us</t>
-  </si>
-  <si>
-    <t>26,670.0 us</t>
-  </si>
-  <si>
-    <t>353.772 us</t>
-  </si>
-  <si>
-    <t>330.92 us</t>
-  </si>
-  <si>
     <t>Multiple reads, multiple times, without pooling</t>
   </si>
   <si>
@@ -491,15 +203,302 @@
   </si>
   <si>
     <t>Multiple reads, multiple writes, with pooling</t>
+  </si>
+  <si>
+    <t>481.7 us</t>
+  </si>
+  <si>
+    <t>9.358 us</t>
+  </si>
+  <si>
+    <t>13.119 us</t>
+  </si>
+  <si>
+    <t>487.0 us</t>
+  </si>
+  <si>
+    <t>9.379 us</t>
+  </si>
+  <si>
+    <t>9.212 us</t>
+  </si>
+  <si>
+    <t>531.2 us</t>
+  </si>
+  <si>
+    <t>8.545 us</t>
+  </si>
+  <si>
+    <t>7.993 us</t>
+  </si>
+  <si>
+    <t>566.0 us</t>
+  </si>
+  <si>
+    <t>11.573 us</t>
+  </si>
+  <si>
+    <t>20.270 us</t>
+  </si>
+  <si>
+    <t>4,376.3 us</t>
+  </si>
+  <si>
+    <t>79.051 us</t>
+  </si>
+  <si>
+    <t>73.945 us</t>
+  </si>
+  <si>
+    <t>4,410.1 us</t>
+  </si>
+  <si>
+    <t>87.690 us</t>
+  </si>
+  <si>
+    <t>136.523 us</t>
+  </si>
+  <si>
+    <t>27,800.5 us</t>
+  </si>
+  <si>
+    <t>533.114 us</t>
+  </si>
+  <si>
+    <t>634.635 us</t>
+  </si>
+  <si>
+    <t>27,898.1 us</t>
+  </si>
+  <si>
+    <t>390.694 us</t>
+  </si>
+  <si>
+    <t>365.455 us</t>
+  </si>
+  <si>
+    <t>529.7 us</t>
+  </si>
+  <si>
+    <t>10.57 us</t>
+  </si>
+  <si>
+    <t>17.66 us</t>
+  </si>
+  <si>
+    <t>563.7 us</t>
+  </si>
+  <si>
+    <t>10.75 us</t>
+  </si>
+  <si>
+    <t>10.06 us</t>
+  </si>
+  <si>
+    <t>589.5 us</t>
+  </si>
+  <si>
+    <t>11.61 us</t>
+  </si>
+  <si>
+    <t>20.33 us</t>
+  </si>
+  <si>
+    <t>610.0 us</t>
+  </si>
+  <si>
+    <t>15.71 us</t>
+  </si>
+  <si>
+    <t>18.70 us</t>
+  </si>
+  <si>
+    <t>4,687.0 us</t>
+  </si>
+  <si>
+    <t>65.05 us</t>
+  </si>
+  <si>
+    <t>50.79 us</t>
+  </si>
+  <si>
+    <t>4,849.6 us</t>
+  </si>
+  <si>
+    <t>95.43 us</t>
+  </si>
+  <si>
+    <t>139.88 us</t>
+  </si>
+  <si>
+    <t>32,076.4 us</t>
+  </si>
+  <si>
+    <t>627.38 us</t>
+  </si>
+  <si>
+    <t>1,131.30 us</t>
+  </si>
+  <si>
+    <t>31,429.4 us</t>
+  </si>
+  <si>
+    <t>695.87 us</t>
+  </si>
+  <si>
+    <t>801.37 us</t>
+  </si>
+  <si>
+    <t>494.0 us</t>
+  </si>
+  <si>
+    <t>10.190 us</t>
+  </si>
+  <si>
+    <t>13.604 us</t>
+  </si>
+  <si>
+    <t>488.5 us</t>
+  </si>
+  <si>
+    <t>7.837 us</t>
+  </si>
+  <si>
+    <t>6.947 us</t>
+  </si>
+  <si>
+    <t>545.1 us</t>
+  </si>
+  <si>
+    <t>10.254 us</t>
+  </si>
+  <si>
+    <t>11.397 us</t>
+  </si>
+  <si>
+    <t>553.4 us</t>
+  </si>
+  <si>
+    <t>10.770 us</t>
+  </si>
+  <si>
+    <t>11.524 us</t>
+  </si>
+  <si>
+    <t>4,442.6 us</t>
+  </si>
+  <si>
+    <t>87.656 us</t>
+  </si>
+  <si>
+    <t>136.470 us</t>
+  </si>
+  <si>
+    <t>4,448.4 us</t>
+  </si>
+  <si>
+    <t>86.138 us</t>
+  </si>
+  <si>
+    <t>128.927 us</t>
+  </si>
+  <si>
+    <t>27,800.0 us</t>
+  </si>
+  <si>
+    <t>546.053 us</t>
+  </si>
+  <si>
+    <t>560.757 us</t>
+  </si>
+  <si>
+    <t>27,548.8 us</t>
+  </si>
+  <si>
+    <t>543.741 us</t>
+  </si>
+  <si>
+    <t>581.797 us</t>
+  </si>
+  <si>
+    <t>475.9 us</t>
+  </si>
+  <si>
+    <t>6.937 us</t>
+  </si>
+  <si>
+    <t>6.489 us</t>
+  </si>
+  <si>
+    <t>516.1 us</t>
+  </si>
+  <si>
+    <t>8.964 us</t>
+  </si>
+  <si>
+    <t>8.385 us</t>
+  </si>
+  <si>
+    <t>548.1 us</t>
+  </si>
+  <si>
+    <t>10.863 us</t>
+  </si>
+  <si>
+    <t>19.026 us</t>
+  </si>
+  <si>
+    <t>565.2 us</t>
+  </si>
+  <si>
+    <t>11.300 us</t>
+  </si>
+  <si>
+    <t>20.377 us</t>
+  </si>
+  <si>
+    <t>4,426.0 us</t>
+  </si>
+  <si>
+    <t>88.144 us</t>
+  </si>
+  <si>
+    <t>134.605 us</t>
+  </si>
+  <si>
+    <t>4,473.7 us</t>
+  </si>
+  <si>
+    <t>93.223 us</t>
+  </si>
+  <si>
+    <t>117.898 us</t>
+  </si>
+  <si>
+    <t>27,339.0 us</t>
+  </si>
+  <si>
+    <t>524.595 us</t>
+  </si>
+  <si>
+    <t>490.706 us</t>
+  </si>
+  <si>
+    <t>27,666.7 us</t>
+  </si>
+  <si>
+    <t>222.185 us</t>
+  </si>
+  <si>
+    <t>207.832 us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;ns&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;μs&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;μs&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -978,11 +977,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,10 +1120,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54391774355502953"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.43117168875677669"/>
-          <c:h val="0.61498432487605714"/>
+          <c:x val="0.26047581579417006"/>
+          <c:y val="0.10020120331140012"/>
+          <c:w val="0.69212290773456697"/>
+          <c:h val="0.79586699349852796"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1195,28 +1193,28 @@
                 <c:formatCode>#,##0.00\ "μs"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>480.6</c:v>
+                  <c:v>529.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>511.3</c:v>
+                  <c:v>563.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>534.1</c:v>
+                  <c:v>589.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>563</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4388.6000000000004</c:v>
+                  <c:v>4687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4622.5</c:v>
+                  <c:v>4849.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30651.200000000001</c:v>
+                  <c:v>32076.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32121.5</c:v>
+                  <c:v>31429.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,28 +1288,28 @@
                 <c:formatCode>#,##0.00\ "μs"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>434.7</c:v>
+                  <c:v>481.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>436.8</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>487.4</c:v>
+                  <c:v>531.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>489.8</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4058.3</c:v>
+                  <c:v>4376.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4064.9</c:v>
+                  <c:v>4410.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26005.599999999999</c:v>
+                  <c:v>27800.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25902.799999999999</c:v>
+                  <c:v>27898.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,28 +1383,28 @@
                 <c:formatCode>#,##0.00\ "μs"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>461.3</c:v>
+                  <c:v>475.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474.4</c:v>
+                  <c:v>516.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519.79999999999995</c:v>
+                  <c:v>548.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>521.6</c:v>
+                  <c:v>565.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4185.8</c:v>
+                  <c:v>4426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4295.3</c:v>
+                  <c:v>4473.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27048.799999999999</c:v>
+                  <c:v>27339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26849.7</c:v>
+                  <c:v>27666.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,28 +1478,28 @@
                 <c:formatCode>#,##0.00\ "μs"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>455.9</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480.3</c:v>
+                  <c:v>488.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>522</c:v>
+                  <c:v>545.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>542.6</c:v>
+                  <c:v>553.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4248.3999999999996</c:v>
+                  <c:v>4442.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4224.3</c:v>
+                  <c:v>4448.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27200.6</c:v>
+                  <c:v>27800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26670</c:v>
+                  <c:v>27548.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,7 +1617,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$G$1</c15:sqref>
@@ -1643,7 +1641,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -1681,7 +1679,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$G$2:$G$9</c15:sqref>
@@ -1694,7 +1692,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -1707,7 +1705,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$H$1</c15:sqref>
@@ -1733,7 +1731,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -1771,7 +1769,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$H$2:$H$9</c15:sqref>
@@ -1784,7 +1782,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -1797,7 +1795,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$I$1</c15:sqref>
@@ -1823,7 +1821,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -1861,7 +1859,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$I$2:$I$9</c15:sqref>
@@ -1874,7 +1872,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -1887,7 +1885,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$J$1</c15:sqref>
@@ -1913,7 +1911,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -1951,7 +1949,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$J$2:$J$9</c15:sqref>
@@ -1964,7 +1962,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -1977,7 +1975,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$K$1</c15:sqref>
@@ -2003,7 +2001,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2041,7 +2039,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$K$2:$K$9</c15:sqref>
@@ -2054,7 +2052,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2067,7 +2065,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$L$1</c15:sqref>
@@ -2093,7 +2091,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2131,7 +2129,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$L$2:$L$9</c15:sqref>
@@ -2144,7 +2142,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2157,7 +2155,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$M$1</c15:sqref>
@@ -2183,7 +2181,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2221,7 +2219,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$M$2:$M$9</c15:sqref>
@@ -2234,7 +2232,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2247,7 +2245,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$N$1</c15:sqref>
@@ -2274,7 +2272,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2312,7 +2310,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$N$2:$N$9</c15:sqref>
@@ -2325,7 +2323,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2338,7 +2336,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$O$1</c15:sqref>
@@ -2365,7 +2363,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2403,7 +2401,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$O$2:$O$9</c15:sqref>
@@ -2416,7 +2414,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2429,7 +2427,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$P$1</c15:sqref>
@@ -2456,7 +2454,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2494,7 +2492,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$P$2:$P$9</c15:sqref>
@@ -2507,7 +2505,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2520,7 +2518,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Q$1</c15:sqref>
@@ -2547,7 +2545,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2585,7 +2583,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Q$2:$Q$9</c15:sqref>
@@ -2598,7 +2596,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2611,7 +2609,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$R$1</c15:sqref>
@@ -2638,7 +2636,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2676,7 +2674,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$R$2:$R$9</c15:sqref>
@@ -2689,7 +2687,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2702,7 +2700,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$S$1</c15:sqref>
@@ -2729,7 +2727,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2767,7 +2765,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$S$2:$S$9</c15:sqref>
@@ -2780,7 +2778,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2793,7 +2791,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$T$1</c15:sqref>
@@ -2819,7 +2817,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2857,7 +2855,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$T$2:$T$9</c15:sqref>
@@ -2870,7 +2868,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2883,7 +2881,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$U$1</c15:sqref>
@@ -2909,7 +2907,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -2947,7 +2945,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$U$2:$U$9</c15:sqref>
@@ -2960,7 +2958,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -2973,7 +2971,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$V$1</c15:sqref>
@@ -2999,7 +2997,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3037,7 +3035,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$V$2:$V$9</c15:sqref>
@@ -3050,7 +3048,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3063,7 +3061,7 @@
                 <c:order val="21"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$W$1</c15:sqref>
@@ -3089,7 +3087,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3127,7 +3125,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$W$2:$W$9</c15:sqref>
@@ -3140,7 +3138,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3153,7 +3151,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$X$1</c15:sqref>
@@ -3179,7 +3177,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3217,7 +3215,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$X$2:$X$9</c15:sqref>
@@ -3230,7 +3228,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3243,7 +3241,7 @@
                 <c:order val="23"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Y$1</c15:sqref>
@@ -3269,7 +3267,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3307,7 +3305,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Y$2:$Y$9</c15:sqref>
@@ -3320,7 +3318,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3333,7 +3331,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Z$1</c15:sqref>
@@ -3360,7 +3358,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3398,7 +3396,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$Z$2:$Z$9</c15:sqref>
@@ -3411,7 +3409,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3424,7 +3422,7 @@
                 <c:order val="25"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AA$1</c15:sqref>
@@ -3451,7 +3449,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3489,7 +3487,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AA$2:$AA$9</c15:sqref>
@@ -3502,7 +3500,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000019-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3515,7 +3513,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AB$1</c15:sqref>
@@ -3542,7 +3540,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3580,7 +3578,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AB$2:$AB$9</c15:sqref>
@@ -3593,7 +3591,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3606,7 +3604,7 @@
                 <c:order val="27"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AC$1</c15:sqref>
@@ -3633,7 +3631,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3671,7 +3669,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AC$2:$AC$9</c15:sqref>
@@ -3684,7 +3682,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3697,7 +3695,7 @@
                 <c:order val="28"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AD$1</c15:sqref>
@@ -3724,7 +3722,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3762,7 +3760,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AD$2:$AD$9</c15:sqref>
@@ -3775,7 +3773,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001C-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3788,7 +3786,7 @@
                 <c:order val="29"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AE$1</c15:sqref>
@@ -3815,7 +3813,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3853,7 +3851,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AE$2:$AE$9</c15:sqref>
@@ -3866,7 +3864,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001D-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3879,7 +3877,7 @@
                 <c:order val="30"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AF$1</c15:sqref>
@@ -3905,7 +3903,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -3943,7 +3941,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AF$2:$AF$9</c15:sqref>
@@ -3956,7 +3954,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001E-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -3969,7 +3967,7 @@
                 <c:order val="31"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AG$1</c15:sqref>
@@ -3995,7 +3993,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -4033,7 +4031,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AG$2:$AG$9</c15:sqref>
@@ -4046,7 +4044,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001F-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -4059,7 +4057,7 @@
                 <c:order val="32"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AH$1</c15:sqref>
@@ -4085,7 +4083,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -4123,7 +4121,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AH$2:$AH$9</c15:sqref>
@@ -4136,7 +4134,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000020-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -4149,7 +4147,7 @@
                 <c:order val="33"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AI$1</c15:sqref>
@@ -4175,7 +4173,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$A$2:$A$9</c15:sqref>
@@ -4213,7 +4211,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Combined!$AI$2:$AI$9</c15:sqref>
@@ -4226,7 +4224,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000021-4784-4B44-92BB-3C5C92E3EE79}"/>
                   </c:ext>
@@ -5001,15 +4999,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:colOff>1006931</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>153078</xdr:rowOff>
+      <xdr:rowOff>30613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5333,11 +5331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,189 +5346,189 @@
     <col min="4" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="3">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
         <f>NET46_SAP!AJ2</f>
-        <v>480.6</v>
-      </c>
-      <c r="C2" s="3">
+        <v>529.70000000000005</v>
+      </c>
+      <c r="C2" s="2">
         <f>NET46_COREFX!AJ2</f>
-        <v>434.7</v>
-      </c>
-      <c r="D2" s="3">
+        <v>481.7</v>
+      </c>
+      <c r="D2" s="2">
         <f>NETCORE1_1!AJ2</f>
-        <v>461.3</v>
-      </c>
-      <c r="E2" s="3">
+        <v>475.9</v>
+      </c>
+      <c r="E2" s="2">
         <f>NETCORE2_0!AJ2</f>
-        <v>455.9</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="3">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2">
         <f>NET46_SAP!AJ3</f>
-        <v>511.3</v>
-      </c>
-      <c r="C3" s="3">
+        <v>563.70000000000005</v>
+      </c>
+      <c r="C3" s="2">
         <f>NET46_COREFX!AJ3</f>
-        <v>436.8</v>
-      </c>
-      <c r="D3" s="3">
+        <v>487</v>
+      </c>
+      <c r="D3" s="2">
         <f>NETCORE1_1!AJ3</f>
-        <v>474.4</v>
-      </c>
-      <c r="E3" s="3">
+        <v>516.1</v>
+      </c>
+      <c r="E3" s="2">
         <f>NETCORE2_0!AJ3</f>
-        <v>480.3</v>
+        <v>488.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="3">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
         <f>NET46_SAP!AJ4</f>
-        <v>534.1</v>
-      </c>
-      <c r="C4" s="3">
+        <v>589.5</v>
+      </c>
+      <c r="C4" s="2">
         <f>NET46_COREFX!AJ4</f>
-        <v>487.4</v>
-      </c>
-      <c r="D4" s="3">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="D4" s="2">
         <f>NETCORE1_1!AJ4</f>
-        <v>519.79999999999995</v>
-      </c>
-      <c r="E4" s="3">
+        <v>548.1</v>
+      </c>
+      <c r="E4" s="2">
         <f>NETCORE2_0!AJ4</f>
-        <v>522</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2">
         <f>NET46_SAP!AJ5</f>
-        <v>563</v>
-      </c>
-      <c r="C5" s="3">
+        <v>610</v>
+      </c>
+      <c r="C5" s="2">
         <f>NET46_COREFX!AJ5</f>
-        <v>489.8</v>
-      </c>
-      <c r="D5" s="3">
+        <v>566</v>
+      </c>
+      <c r="D5" s="2">
         <f>NETCORE1_1!AJ5</f>
-        <v>521.6</v>
-      </c>
-      <c r="E5" s="3">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="E5" s="2">
         <f>NETCORE2_0!AJ5</f>
-        <v>542.6</v>
+        <v>553.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="3">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
         <f>NET46_SAP!AJ6</f>
-        <v>4388.6000000000004</v>
-      </c>
-      <c r="C6" s="3">
+        <v>4687</v>
+      </c>
+      <c r="C6" s="2">
         <f>NET46_COREFX!AJ6</f>
-        <v>4058.3</v>
-      </c>
-      <c r="D6" s="3">
+        <v>4376.3</v>
+      </c>
+      <c r="D6" s="2">
         <f>NETCORE1_1!AJ6</f>
-        <v>4185.8</v>
-      </c>
-      <c r="E6" s="3">
+        <v>4426</v>
+      </c>
+      <c r="E6" s="2">
         <f>NETCORE2_0!AJ6</f>
-        <v>4248.3999999999996</v>
+        <v>4442.6000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="3">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2">
         <f>NET46_SAP!AJ7</f>
-        <v>4622.5</v>
-      </c>
-      <c r="C7" s="3">
+        <v>4849.6000000000004</v>
+      </c>
+      <c r="C7" s="2">
         <f>NET46_COREFX!AJ7</f>
-        <v>4064.9</v>
-      </c>
-      <c r="D7" s="3">
+        <v>4410.1000000000004</v>
+      </c>
+      <c r="D7" s="2">
         <f>NETCORE1_1!AJ7</f>
-        <v>4295.3</v>
-      </c>
-      <c r="E7" s="3">
+        <v>4473.7</v>
+      </c>
+      <c r="E7" s="2">
         <f>NETCORE2_0!AJ7</f>
-        <v>4224.3</v>
+        <v>4448.3999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="3">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2">
         <f>NET46_SAP!AJ8</f>
-        <v>30651.200000000001</v>
-      </c>
-      <c r="C8" s="3">
+        <v>32076.400000000001</v>
+      </c>
+      <c r="C8" s="2">
         <f>NET46_COREFX!AJ8</f>
-        <v>26005.599999999999</v>
-      </c>
-      <c r="D8" s="3">
+        <v>27800.5</v>
+      </c>
+      <c r="D8" s="2">
         <f>NETCORE1_1!AJ8</f>
-        <v>27048.799999999999</v>
-      </c>
-      <c r="E8" s="3">
+        <v>27339</v>
+      </c>
+      <c r="E8" s="2">
         <f>NETCORE2_0!AJ8</f>
-        <v>27200.6</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="3">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2">
         <f>NET46_SAP!AJ9</f>
-        <v>32121.5</v>
-      </c>
-      <c r="C9" s="3">
+        <v>31429.4</v>
+      </c>
+      <c r="C9" s="2">
         <f>NET46_COREFX!AJ9</f>
-        <v>25902.799999999999</v>
-      </c>
-      <c r="D9" s="3">
+        <v>27898.1</v>
+      </c>
+      <c r="D9" s="2">
         <f>NETCORE1_1!AJ9</f>
-        <v>26849.7</v>
-      </c>
-      <c r="E9" s="3">
+        <v>27666.7</v>
+      </c>
+      <c r="E9" s="2">
         <f>NETCORE2_0!AJ9</f>
-        <v>26670</v>
+        <v>27548.799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5541,11 +5539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+      <selection activeCell="AG2" sqref="AG2:AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5765,17 +5763,17 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AH2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="3">
+        <v>134</v>
+      </c>
+      <c r="AJ2" s="2">
         <f>_xlfn.NUMBERVALUE(SUBSTITUTE(AG2, " us", ""))</f>
-        <v>461.3</v>
+        <v>475.9</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -5876,17 +5874,17 @@
         <v>36</v>
       </c>
       <c r="AG3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="AH3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="AI3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ3" s="3">
+        <v>137</v>
+      </c>
+      <c r="AJ3" s="2">
         <f t="shared" ref="AJ3:AJ9" si="0">_xlfn.NUMBERVALUE(SUBSTITUTE(AG3, " us", ""))</f>
-        <v>474.4</v>
+        <v>516.1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -5987,17 +5985,17 @@
         <v>36</v>
       </c>
       <c r="AG4" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>140</v>
+      </c>
+      <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>519.79999999999995</v>
+        <v>548.1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -6098,17 +6096,17 @@
         <v>36</v>
       </c>
       <c r="AG5" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AH5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="AI5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ5" s="3">
+        <v>143</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="0"/>
-        <v>521.6</v>
+        <v>565.20000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -6209,17 +6207,17 @@
         <v>36</v>
       </c>
       <c r="AG6" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ6" s="3">
+        <v>146</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="0"/>
-        <v>4185.8</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -6320,17 +6318,17 @@
         <v>36</v>
       </c>
       <c r="AG7" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AH7" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="AI7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ7" s="3">
+        <v>149</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="0"/>
-        <v>4295.3</v>
+        <v>4473.7</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -6431,17 +6429,17 @@
         <v>36</v>
       </c>
       <c r="AG8" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AH8" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ8" s="3">
+        <v>152</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="0"/>
-        <v>27048.799999999999</v>
+        <v>27339</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -6542,17 +6540,17 @@
         <v>36</v>
       </c>
       <c r="AG9" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="AH9" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ9" s="3">
+        <v>155</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="0"/>
-        <v>26849.7</v>
+        <v>27666.7</v>
       </c>
     </row>
   </sheetData>
@@ -6561,11 +6559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+      <selection activeCell="AG2" sqref="AG2:AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6785,17 +6783,17 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="AH2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="AI2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ2" s="3">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="2">
         <f>_xlfn.NUMBERVALUE(SUBSTITUTE(AG2, " us", ""))</f>
-        <v>455.9</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -6896,17 +6894,17 @@
         <v>36</v>
       </c>
       <c r="AG3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AH3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AI3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ3" s="3">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="2">
         <f t="shared" ref="AJ3:AJ9" si="0">_xlfn.NUMBERVALUE(SUBSTITUTE(AG3, " us", ""))</f>
-        <v>480.3</v>
+        <v>488.5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -7007,17 +7005,17 @@
         <v>36</v>
       </c>
       <c r="AG4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AH4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="AI4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>116</v>
+      </c>
+      <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -7118,17 +7116,17 @@
         <v>36</v>
       </c>
       <c r="AG5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AH5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AI5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ5" s="3">
+        <v>119</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="0"/>
-        <v>542.6</v>
+        <v>553.4</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -7229,17 +7227,17 @@
         <v>36</v>
       </c>
       <c r="AG6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AI6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ6" s="3">
+        <v>122</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="0"/>
-        <v>4248.3999999999996</v>
+        <v>4442.6000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -7340,17 +7338,17 @@
         <v>36</v>
       </c>
       <c r="AG7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AH7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="AI7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ7" s="3">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="0"/>
-        <v>4224.3</v>
+        <v>4448.3999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -7451,17 +7449,17 @@
         <v>36</v>
       </c>
       <c r="AG8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AI8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ8" s="3">
+        <v>128</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="0"/>
-        <v>27200.6</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -7562,17 +7560,17 @@
         <v>36</v>
       </c>
       <c r="AG9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="AH9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="AI9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ9" s="3">
+        <v>131</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="0"/>
-        <v>26670</v>
+        <v>27548.799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7582,11 +7580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7806,17 +7804,17 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AI2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="3">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="2">
         <f>_xlfn.NUMBERVALUE(SUBSTITUTE(AG2, " us", ""))</f>
-        <v>434.7</v>
+        <v>481.7</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -7917,17 +7915,17 @@
         <v>36</v>
       </c>
       <c r="AG3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AI3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="3">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="2">
         <f t="shared" ref="AJ3:AJ9" si="0">_xlfn.NUMBERVALUE(SUBSTITUTE(AG3, " us", ""))</f>
-        <v>436.8</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -8028,17 +8026,17 @@
         <v>36</v>
       </c>
       <c r="AG4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AH4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>487.4</v>
+        <v>531.20000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -8139,17 +8137,17 @@
         <v>36</v>
       </c>
       <c r="AG5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AH5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ5" s="3">
+        <v>71</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="0"/>
-        <v>489.8</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -8250,17 +8248,17 @@
         <v>36</v>
       </c>
       <c r="AG6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="3">
+        <v>74</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="0"/>
-        <v>4058.3</v>
+        <v>4376.3</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -8361,17 +8359,17 @@
         <v>36</v>
       </c>
       <c r="AG7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ7" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="0"/>
-        <v>4064.9</v>
+        <v>4410.1000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -8472,17 +8470,17 @@
         <v>36</v>
       </c>
       <c r="AG8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ8" s="3">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="0"/>
-        <v>26005.599999999999</v>
+        <v>27800.5</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -8583,17 +8581,17 @@
         <v>36</v>
       </c>
       <c r="AG9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ9" s="3">
+        <v>83</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="0"/>
-        <v>25902.799999999999</v>
+        <v>27898.1</v>
       </c>
     </row>
   </sheetData>
@@ -8603,11 +8601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8826,18 +8824,18 @@
       <c r="AF2" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" s="3">
+      <c r="AG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="2">
         <f>_xlfn.NUMBERVALUE(SUBSTITUTE(AG2, " us", ""))</f>
-        <v>480.6</v>
+        <v>529.70000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -8937,18 +8935,18 @@
       <c r="AF3" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="3">
+      <c r="AG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="2">
         <f t="shared" ref="AJ3:AJ9" si="0">_xlfn.NUMBERVALUE(SUBSTITUTE(AG3, " us", ""))</f>
-        <v>511.3</v>
+        <v>563.70000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -9048,18 +9046,18 @@
       <c r="AF4" t="s">
         <v>36</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" s="3">
+      <c r="AG4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>534.1</v>
+        <v>589.5</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -9159,18 +9157,18 @@
       <c r="AF5" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ5" s="3">
+      <c r="AG5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="0"/>
-        <v>563</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -9270,18 +9268,18 @@
       <c r="AF6" t="s">
         <v>36</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="3">
+      <c r="AG6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="0"/>
-        <v>4388.6000000000004</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -9381,18 +9379,18 @@
       <c r="AF7" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ7" s="3">
+      <c r="AG7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="0"/>
-        <v>4622.5</v>
+        <v>4849.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -9492,18 +9490,18 @@
       <c r="AF8" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="3">
+      <c r="AG8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="0"/>
-        <v>30651.200000000001</v>
+        <v>32076.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -9603,18 +9601,18 @@
       <c r="AF9" t="s">
         <v>36</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ9" s="3">
+      <c r="AG9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="0"/>
-        <v>32121.5</v>
+        <v>31429.4</v>
       </c>
     </row>
   </sheetData>
